--- a/results/2014_reps_by_priority.xlsx
+++ b/results/2014_reps_by_priority.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865E630-9C01-7D40-AF4A-4BD0A439FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB383D-A59E-6A44-9EF8-367054F5B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{011447E3-8122-2B41-99CF-D1AF866B95DA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C30401DB-F3E4-D34F-93CD-13FFD697E505}" name="2014_reps_by_priority" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2014_reps_by_priority.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2014_reps_by_priority.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="53">
   <si>
     <t>HOUSE SEAT</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>WV</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; D's got 47.44% of the vote and won 188 of 435 seats yielding a gap of +18 seats.</t>
   </si>
 </sst>
 </file>
@@ -255,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EC2287-7CAC-EB48-A0C9-55632BD686BB}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +601,7 @@
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,8 +620,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>436</v>
       </c>
@@ -637,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>437</v>
       </c>
@@ -657,7 +664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>438</v>
       </c>
@@ -677,7 +684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>439</v>
       </c>
@@ -697,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>440</v>
       </c>
@@ -717,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>441</v>
       </c>
@@ -737,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>442</v>
       </c>
@@ -757,7 +764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>443</v>
       </c>
@@ -777,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>444</v>
       </c>
@@ -797,7 +804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>445</v>
       </c>
@@ -817,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>446</v>
       </c>
@@ -837,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>447</v>
       </c>
@@ -857,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>448</v>
       </c>
@@ -877,7 +884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>449</v>
       </c>
@@ -897,7 +904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>450</v>
       </c>
